--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1712</v>
+        <v>-22.1755</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.7071</v>
+        <v>-12.2251</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.8849</v>
+        <v>-21.9567</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.7668</v>
+        <v>-12.2546</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.46240000000001</v>
+        <v>-12.65110000000002</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.03029999999998</v>
+        <v>-20.13439999999997</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.951499999999999</v>
+        <v>9.920299999999997</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.09319999999998</v>
+        <v>-20.07899999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.538300000000005</v>
+        <v>5.483400000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.85489999999999</v>
+        <v>-21.83469999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.03199999999997</v>
+        <v>-21.06669999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.755299999999998</v>
+        <v>5.937500000000004</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.10559999999997</v>
+        <v>-20.94949999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.379500000000005</v>
+        <v>9.413800000000007</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.6528</v>
+        <v>-12.7855</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.508800000000005</v>
+        <v>4.696500000000006</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.15269999999999</v>
+        <v>-12.24739999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.062100000000002</v>
+        <v>5.138700000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.496599999999996</v>
+        <v>5.663399999999995</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.316</v>
+        <v>-10.967</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.358299999999998</v>
+        <v>5.411999999999995</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-19.5613</v>
+        <v>-21.685</v>
       </c>
       <c r="B53" t="n">
-        <v>9.310699999999995</v>
+        <v>5.744399999999996</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.954900000000004</v>
+        <v>4.915200000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.72690000000001</v>
+        <v>-13.48259999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.1015</v>
+        <v>-21.92039999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.72179999999999</v>
+        <v>-12.69049999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.0476</v>
+        <v>-22.2421</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.6063</v>
+        <v>-10.6768</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68739999999998</v>
+        <v>-21.69099999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.406700000000001</v>
+        <v>5.2268</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.2134</v>
+        <v>-20.12420000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.40350000000001</v>
+        <v>-13.74250000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.61940000000001</v>
+        <v>-21.5575</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.286000000000004</v>
+        <v>5.429000000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.243299999999994</v>
+        <v>5.186999999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.335799999999995</v>
+        <v>4.475099999999996</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.69389999999997</v>
+        <v>-20.58089999999997</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.3996</v>
+        <v>-10.4662</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.28560000000002</v>
+        <v>-21.24300000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.51949999999999</v>
+        <v>-10.9636</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.0765</v>
+        <v>-10.1542</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.606699999999997</v>
+        <v>6.638299999999998</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.04419999999999</v>
+        <v>-12.60839999999999</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.8476</v>
+        <v>-21.834</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
